--- a/tathagata/results/summary_metrics.xlsx
+++ b/tathagata/results/summary_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Time (min)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Perplexity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Flesch Reading Ease</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Gunning Fog Index</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Entailment-Neutral-Consistency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Empathy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>BERTScore</t>
         </is>
@@ -482,25 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>15.29586597883451</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>53.245</v>
+        <v>17.00299503588317</v>
       </c>
       <c r="E2" t="n">
-        <v>9.58375</v>
+        <v>60.60333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8163973018527031</v>
+        <v>7.486666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2846949234934812</v>
+        <v>0.7325412531693777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4835</v>
+        <v>0.1764804465224213</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3838666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>14.25588261185029</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>57.88249999999999</v>
+        <v>11.99707562395166</v>
       </c>
       <c r="E3" t="n">
-        <v>6.45</v>
+        <v>57.96333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6118656247854233</v>
+        <v>7.43</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3409782739325148</v>
+        <v>0.7194825708866119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.49305</v>
+        <v>0.3042228413004278</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4728166666666667</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>10.59319269236925</v>
-      </c>
       <c r="D4" t="n">
-        <v>40.285</v>
+        <v>14.72542807699743</v>
       </c>
       <c r="E4" t="n">
-        <v>9.470000000000001</v>
+        <v>38.6275</v>
       </c>
       <c r="F4" t="n">
-        <v>0.57750104367733</v>
+        <v>9.7225</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5370914081141027</v>
+        <v>0.6809182316064835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.49325</v>
+        <v>0.2482662398409837</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.460025</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>14.74549941856359</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>47.99374999999999</v>
+        <v>14.54054299183933</v>
       </c>
       <c r="E5" t="n">
-        <v>10.2025</v>
+        <v>56.838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7285343259572983</v>
+        <v>9.343999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5566231684654821</v>
+        <v>0.7493282198905945</v>
       </c>
       <c r="H5" t="n">
-        <v>0.52985</v>
+        <v>0.6377814874293684</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5384100000000001</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.74545980129683</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>60.19499999999999</v>
+        <v>18.66998850620627</v>
       </c>
       <c r="E6" t="n">
-        <v>7.518333333333334</v>
+        <v>62.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7711833914120992</v>
+        <v>8.185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3526065515286651</v>
+        <v>0.7023629918694496</v>
       </c>
       <c r="H6" t="n">
-        <v>0.42955</v>
+        <v>0.2382443290059142</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4912749999999999</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>15.33315347322211</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>53.11</v>
+        <v>12.58934115278937</v>
       </c>
       <c r="E7" t="n">
-        <v>9.9</v>
+        <v>63.475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7772698178887367</v>
+        <v>7.148333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.125303303855844</v>
+        <v>0.796918253103892</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4953125</v>
+        <v>0.165238055902091</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.448</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>11.43118557149556</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>54.34333333333333</v>
+        <v>34.7643808065357</v>
       </c>
       <c r="E8" t="n">
-        <v>8.584999999999999</v>
+        <v>55.45857142857143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7451793551445007</v>
+        <v>9.705714285714285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2391379467138894</v>
+        <v>0.8355420402118138</v>
       </c>
       <c r="H8" t="n">
-        <v>0.48985</v>
+        <v>0.3524402083705272</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5774</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>15.03303463337493</v>
-      </c>
       <c r="D9" t="n">
-        <v>51.99000000000001</v>
+        <v>10.30424690887918</v>
       </c>
       <c r="E9" t="n">
-        <v>8.596666666666666</v>
+        <v>51.73666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7239286104838053</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4503327297033807</v>
+        <v>0.726477692524592</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4512666666666666</v>
+        <v>0.1034525033367635</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.44335</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>12.17454540513359</v>
-      </c>
       <c r="D10" t="n">
-        <v>42.725</v>
+        <v>16.84469795342042</v>
       </c>
       <c r="E10" t="n">
-        <v>10.94833333333333</v>
+        <v>39.04166666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7233994702498118</v>
+        <v>11.40833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08965108221423264</v>
+        <v>0.6543693641821543</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5342333333333333</v>
+        <v>0.6220974346825636</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6211666666666668</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
-        <v>14.87977669823153</v>
-      </c>
       <c r="D11" t="n">
-        <v>47.86777777777778</v>
+        <v>15.15746019551164</v>
       </c>
       <c r="E11" t="n">
-        <v>12.34833333333333</v>
+        <v>54.8738888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6871718996100955</v>
+        <v>10.63944444444445</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5412524509712627</v>
+        <v>0.7475307981173197</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6264</v>
+        <v>0.7030727832010455</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6319111111111111</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>16.78338948694728</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>60.13</v>
+        <v>18.97582117255906</v>
       </c>
       <c r="E12" t="n">
-        <v>8.40625</v>
+        <v>59.59</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8084938153624535</v>
+        <v>9.383999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1208593842519116</v>
+        <v>0.8014606833457947</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4817</v>
+        <v>0.4616497657644622</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5099600000000001</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +831,25 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>14.96122906230246</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>60.331</v>
+        <v>16.68593439135956</v>
       </c>
       <c r="E13" t="n">
-        <v>9.238</v>
+        <v>58.26416666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8116018056869507</v>
+        <v>10.1125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1912759280665176</v>
+        <v>0.7464624593655268</v>
       </c>
       <c r="H13" t="n">
-        <v>0.50002</v>
+        <v>0.2561081290134884</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5094583333333333</v>
       </c>
     </row>
     <row r="14">
@@ -818,25 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>12.3879663349857</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>42.118</v>
+        <v>9.354589395536147</v>
       </c>
       <c r="E14" t="n">
-        <v>11.51</v>
+        <v>47.06666666666668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7184683918952942</v>
+        <v>11.845</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3315260235025312</v>
+        <v>0.8879779842164781</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5893200000000001</v>
+        <v>0.3910482174231577</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6651222222222223</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>11.46809155804769</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>46.503</v>
+        <v>14.56586365409762</v>
       </c>
       <c r="E15" t="n">
-        <v>10.674</v>
+        <v>49.005</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7475938439369202</v>
+        <v>10.12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4311275354529493</v>
+        <v>0.7706534206867218</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.1601834382184749</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.53461</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15.62949817398599</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>44.0225</v>
+        <v>13.95205316602343</v>
       </c>
       <c r="E16" t="n">
-        <v>11.94083333333333</v>
+        <v>31.89875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6863461683193842</v>
+        <v>13.3475</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7305664078783859</v>
+        <v>0.6983311623334885</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6527250000000001</v>
+        <v>0.05448345582181986</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.56465</v>
       </c>
     </row>
     <row r="17">
@@ -902,25 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>13.31807857620531</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>56.64093749999999</v>
+        <v>15.60235699510913</v>
       </c>
       <c r="E17" t="n">
-        <v>10.311875</v>
+        <v>53.46071428571427</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7251631133258343</v>
+        <v>11.2975</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6880146090962437</v>
+        <v>0.6930893010326794</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6895562500000001</v>
+        <v>0.2582317777198346</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6400535714285713</v>
       </c>
     </row>
     <row r="18">
@@ -930,25 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>21.26819605425959</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>56.833125</v>
+        <v>17.14890865168301</v>
       </c>
       <c r="E18" t="n">
-        <v>10.920625</v>
+        <v>66.72714285714285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7903630025684834</v>
+        <v>8.341428571428571</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4199426440639496</v>
+        <v>0.80890120778765</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5547124999999999</v>
+        <v>0.3165135501517266</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5204214285714286</v>
       </c>
     </row>
     <row r="19">
@@ -958,25 +1014,183 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>16.91855283155471</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>59.03312499999999</v>
+        <v>18.45210486254826</v>
       </c>
       <c r="E19" t="n">
-        <v>10.27</v>
+        <v>62.67642857142857</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8294712789356709</v>
+        <v>9.41642857142857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6762079732596533</v>
+        <v>0.7904890860830035</v>
       </c>
       <c r="H19" t="n">
-        <v>0.57855</v>
+        <v>0.5723187685291828</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5388785714285714</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>gemma3:12b_gemma3:12b</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23.31019668279999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58.685</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7.011666666666666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6479067802429199</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.370180423848563</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4172166666666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gemma3:12b_gemma3:12b</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17.180115432898</v>
+      </c>
+      <c r="E21" t="n">
+        <v>63.185</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.761666666666667</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6554248730341593</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1856545144847652</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4137</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>gemma3:12b_gemma3:12b</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.06364570366047</v>
+      </c>
+      <c r="E22" t="n">
+        <v>52.148</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.379000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7058762311935425</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3776658643586975</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4523499999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>gemini-2.5-pro-exp_gemini-2.5-pro-exp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24.89709997424184</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61.90666666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.893333333333334</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5419649879137675</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2892044354747683</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5014666666666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>gemini-2.5-pro-exp_gemini-2.5-pro-exp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="n">
+        <v>30.77090886883413</v>
+      </c>
+      <c r="E24" t="n">
+        <v>54.642</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.209</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6478052794933319</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4877557687088286</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.50371</v>
       </c>
     </row>
   </sheetData>
